--- a/out/PB/FigA_14.xlsx
+++ b/out/PB/FigA_14.xlsx
@@ -42,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T11"/>
+      <selection activeCell="U1" sqref="U1:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.93496999999999997</v>
       </c>
@@ -451,8 +460,12 @@
       <c r="T1">
         <v>0.93657000000000001</v>
       </c>
+      <c r="U1" s="1">
+        <f>AVERAGE(A1:T1)</f>
+        <v>0.93291550000000001</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.93313000000000001</v>
       </c>
@@ -513,8 +526,12 @@
       <c r="T2">
         <v>0.92634000000000005</v>
       </c>
+      <c r="U2" s="1">
+        <f t="shared" ref="U2:U11" si="0">AVERAGE(A2:T2)</f>
+        <v>0.92976749999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.93149000000000004</v>
       </c>
@@ -575,8 +592,12 @@
       <c r="T3">
         <v>0.9264</v>
       </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92758450000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.93088000000000004</v>
       </c>
@@ -637,8 +658,12 @@
       <c r="T4">
         <v>0.92206999999999995</v>
       </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92635500000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.92934000000000005</v>
       </c>
@@ -699,8 +724,12 @@
       <c r="T5">
         <v>0.92147999999999997</v>
       </c>
+      <c r="U5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92449250000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.92591000000000001</v>
       </c>
@@ -761,8 +790,12 @@
       <c r="T6">
         <v>0.91910000000000003</v>
       </c>
+      <c r="U6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92197099999999987</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.92174999999999996</v>
       </c>
@@ -823,8 +856,12 @@
       <c r="T7">
         <v>0.91574999999999995</v>
       </c>
+      <c r="U7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92020099999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.92632999999999999</v>
       </c>
@@ -885,8 +922,12 @@
       <c r="T8">
         <v>0.91620000000000001</v>
       </c>
+      <c r="U8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91861650000000006</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.92120999999999997</v>
       </c>
@@ -947,8 +988,12 @@
       <c r="T9">
         <v>0.91837000000000002</v>
       </c>
+      <c r="U9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91826950000000007</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.91651000000000005</v>
       </c>
@@ -1009,8 +1054,12 @@
       <c r="T10">
         <v>0.91461999999999999</v>
       </c>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91558150000000005</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.92230000000000001</v>
       </c>
@@ -1070,10 +1119,15 @@
       </c>
       <c r="T11">
         <v>0.91520999999999997</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91713949999999989</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>